--- a/experiments/optics-ajk/simcse/0.1/prediction.xlsx
+++ b/experiments/optics-ajk/simcse/0.1/prediction.xlsx
@@ -458,47 +458,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A passenger aircraft is nearby. Fly with caution</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,17 +588,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,27 +608,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,27 +748,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,17 +798,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,27 +818,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,27 +858,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,27 +888,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,77 +958,77 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,67 +1238,67 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,27 +1308,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,27 +1378,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,27 +1408,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,17 +1438,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,37 +1508,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,17 +1558,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,17 +1648,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,17 +1698,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,17 +1728,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,37 +1838,37 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,17 +1878,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,27 +1908,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,17 +1998,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,27 +2088,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,37 +2278,37 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,27 +2328,27 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,87 +2368,87 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,57 +2478,57 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,57 +2548,57 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2628,17 +2628,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,17 +2658,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,17 +2708,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2828,17 +2828,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2848,17 +2848,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,67 +2988,67 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,27 +3058,27 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,57 +3088,57 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,47 +3148,47 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,27 +3208,27 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,17 +3308,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,57 +3388,57 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,17 +3478,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,27 +3498,27 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3548,47 +3548,47 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3598,37 +3598,37 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3658,17 +3658,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,57 +3688,57 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3778,37 +3778,37 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,17 +3818,17 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>-1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3848,117 +3848,117 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,27 +3998,27 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4068,17 +4068,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,27 +4088,27 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4158,27 +4158,27 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,27 +4188,27 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4238,27 +4238,27 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,1987 +4268,1987 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>57</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>57</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>62</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>62</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>64</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>69</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>69</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>71</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>72</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>78</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>78</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -6258,11 +6258,11 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584">
